--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
@@ -5,37 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B3EA4-E71B-0349-AD89-D56579AE0FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04BC24-6A74-7243-9366-8BA35F0A38AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BF4D8837-18DE-1C42-92A8-8B28EC7A2714}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BF4D8837-18DE-1C42-92A8-8B28EC7A2714}"/>
   </bookViews>
   <sheets>
     <sheet name="Moons of Jupiter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Moons of Jupiter'!$G$2:$G$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Moons of Jupiter'!$H$2:$H$19</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Moons</t>
   </si>
@@ -191,15 +171,29 @@
   <si>
     <t>y = 2.66E-17x - 9.59E+06</t>
   </si>
+  <si>
+    <t>Actual Mass</t>
+  </si>
+  <si>
+    <t>%Error</t>
+  </si>
+  <si>
+    <t>Via Least Square Fit (All Moons)</t>
+  </si>
+  <si>
+    <t>Via Least Square Fit (Gallilean Moons)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,8 +271,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -670,35 +686,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +1018,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,257 +1033,80 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="30" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3255,8 +3391,8 @@
       <xdr:rowOff>22281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>712982</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>45897</xdr:rowOff>
     </xdr:to>
@@ -3585,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFBB5D1-D9E7-5D44-B10E-1D2EA805C34C}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3606,2558 +3742,2569 @@
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
     <col min="18" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="5">
+      <c r="B2" s="98"/>
+      <c r="C2" s="2">
         <v>421.8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <f>C2*1000000</f>
         <v>421800000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>1.7691380000000001</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <f>E2*24*60*60</f>
         <v>152853.52320000003</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="8">
         <f>D2*D2*D2</f>
         <v>7.5044648232000002E+25</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="8">
         <f>F2*F2</f>
         <v>23364199554.652946</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="5">
+      <c r="B3" s="98"/>
+      <c r="C3" s="2">
         <v>671.1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D19" si="0">C3*1000000</f>
         <v>671100000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>3.5511810000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F19" si="1">E3*24*60*60</f>
         <v>306822.03840000002</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G19" si="2">D3*D3*D3</f>
         <v>3.0224680343100001E+26</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H19" si="3">F3*F3</f>
         <v>94139763247.931091</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="5">
+      <c r="B4" s="98"/>
+      <c r="C4" s="2">
         <v>1070.4000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>1070400000.0000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>7.1545529999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>618153.37919999997</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="8">
         <f t="shared" si="2"/>
         <v>1.2264173936640004E+27</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="8">
         <f t="shared" si="3"/>
         <v>382113600216.37897</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="19" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="5">
+      <c r="B5" s="98"/>
+      <c r="C5" s="2">
         <v>1882.7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>1882700000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>16.689017</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>1441931.0688</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
         <v>6.6733417752830005E+27</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="8">
         <f t="shared" si="3"/>
         <v>2079165207170.7104</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="7">
+      <c r="B6" s="84"/>
+      <c r="C6" s="4">
         <v>16990</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>16990000000</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>456.1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>39407040.000000007</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
         <v>4.9043350989999997E+30</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="9">
         <f t="shared" si="3"/>
         <v>1552914801561600.5</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="7">
+      <c r="B7" s="84"/>
+      <c r="C7" s="4">
         <v>19390</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>19390000000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>553.1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>47787840.000000007</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>7.2900990189999997E+30</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="9">
         <f t="shared" si="3"/>
         <v>2283677651865600.5</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="7">
+      <c r="B8" s="84"/>
+      <c r="C8" s="4">
         <v>20720</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>20720000000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>622.6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>53792640.000000007</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="9">
         <f t="shared" si="2"/>
         <v>8.895477248E+30</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="9">
         <f t="shared" si="3"/>
         <v>2893648118169601</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="7">
+      <c r="B9" s="84"/>
+      <c r="C9" s="4">
         <v>20800</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>20800000000</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>620.6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>53619840.000000007</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="9">
         <f t="shared" si="2"/>
         <v>8.9989119999999996E+30</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="9">
         <f t="shared" si="3"/>
         <v>2875087241625601</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="7">
+      <c r="B10" s="84"/>
+      <c r="C10" s="4">
         <v>20940</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>20940000000</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>627.29999999999995</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>54198719.999999993</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>9.1818465839999998E+30</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="9">
         <f t="shared" si="3"/>
         <v>2937501249638399</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="7">
+      <c r="B11" s="84"/>
+      <c r="C11" s="4">
         <v>22870</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>22870000000</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>717.3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>61974719.999999985</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>1.1961853902999999E+31</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
         <v>3840865919078398</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="7">
+      <c r="B12" s="84"/>
+      <c r="C12" s="4">
         <v>22930</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>22930000000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>723.9</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>62544959.999999993</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>1.2056247757000001E+31</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
         <v>3911872021401599</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="7">
+      <c r="B13" s="84"/>
+      <c r="C13" s="4">
         <v>23220</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>23220000000</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>725.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>62683200</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>1.2519490247999999E+31</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
         <v>3929183562240000</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="7">
+      <c r="B14" s="84"/>
+      <c r="C14" s="4">
         <v>23230</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>23230000000</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>730.2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>63089280.000000015</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>1.2535672267E+31</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="9">
         <f t="shared" si="3"/>
         <v>3980257250918402</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="7">
+      <c r="B15" s="84"/>
+      <c r="C15" s="4">
         <v>23490</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>23490000000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>748.3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>64653119.999999985</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>1.2961314549000001E+31</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="9">
         <f t="shared" si="3"/>
         <v>4180025925734398</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="7">
+      <c r="B16" s="84"/>
+      <c r="C16" s="4">
         <v>23580</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>23580000000</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>743</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>64195200</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="9">
         <f t="shared" si="2"/>
         <v>1.3110866711999999E+31</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="9">
         <f t="shared" si="3"/>
         <v>4121023703040000</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="7">
+      <c r="B17" s="84"/>
+      <c r="C17" s="4">
         <v>23620</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>23620000000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>743.6</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>64247040</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="9">
         <f t="shared" si="2"/>
         <v>1.3177701928000001E+31</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="9">
         <f t="shared" si="3"/>
         <v>4127682148761600</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="7">
+      <c r="B18" s="84"/>
+      <c r="C18" s="4">
         <v>23810</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>23810000000</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>752.8</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>65041919.999999985</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="9">
         <f t="shared" si="2"/>
         <v>1.3498272341E+31</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="9">
         <f t="shared" si="3"/>
         <v>4230451357286398</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="7">
+      <c r="B19" s="84"/>
+      <c r="C19" s="4">
         <v>23940</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>23940000000</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>758.9</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>65568960</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="9">
         <f t="shared" si="2"/>
         <v>1.3720578984E+31</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="9">
         <f t="shared" si="3"/>
         <v>4299288515481600</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="1:21" ht="32" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="102" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="101" t="s">
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="81">
         <f>AVERAGE(G2:G19)</f>
         <v>8.6011636494233669E+30</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="34" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="81">
         <f>AVERAGE(G2:G5)</f>
         <v>2.0692626551525004E+27</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="32" t="s">
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="32" t="s">
+      <c r="N22" s="105"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="66">
         <f>AVERAGE(H2:H19)</f>
         <v>2731447680531855</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="35" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="66">
         <f>AVERAGE(H2:H5)</f>
         <v>644695692547.41833</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="65" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="66" t="s">
+      <c r="N23" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="65" t="s">
+      <c r="O23" s="15"/>
+      <c r="P23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="66" t="s">
+      <c r="Q23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
+      <c r="A24" s="40">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="41">
         <f>(((G2*H2)-(18*($B$22*$B$23))))</f>
         <v>-4.2288531299990909E+47</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="42">
         <f>(G2*G2)-(18*(($B$22)*($B$22)))</f>
         <v>-1.3316402902292823E+63</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="43">
         <f>B24/C24</f>
         <v>3.1756722600147263E-16</v>
       </c>
       <c r="E24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="68">
+      <c r="F24" s="24"/>
+      <c r="G24" s="40">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="52">
         <f>(((G2*H2)-(4*($H$23*$H$22))))</f>
         <v>-5.3344255239674024E+39</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="42">
         <f>(G2*G2)-(18*(($H$22)*($H$22)))</f>
         <v>-7.7067631148929697E+55</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="43">
         <f>H24/I24</f>
         <v>6.9217458022796458E-17</v>
       </c>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="31" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="109">
         <f>((4*PI())/(0.0000000000667))/(3.1672E-16)</f>
         <v>5.9485147302386819E+26</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="31" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="58">
+      <c r="Q24" s="109">
         <f>((4*PI())/(0.0000000000667))/(3.1157E-16)</f>
         <v>6.0468388656199102E+26</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="18">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="20">
         <f t="shared" ref="B25:B41" si="4">(((G3*H3)-(18*($B$22*$B$23))))</f>
         <v>-4.2288531297320901E+47</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="27">
         <f t="shared" ref="C25:C41" si="5">(G3*G3)-(18*(($B$22)*($B$22)))</f>
         <v>-1.3316402901435608E+63</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="44">
         <f t="shared" ref="D25:D42" si="6">B25/C25</f>
         <v>3.175672260018648E-16</v>
       </c>
       <c r="E25" s="76"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="36">
+      <c r="F25" s="24"/>
+      <c r="G25" s="18">
         <f>G24+1</f>
         <v>2</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="52">
         <f t="shared" ref="H25:H27" si="7">(((G3*H3)-(4*($H$23*$H$22))))</f>
         <v>-5.3077254395867652E+39</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="42">
         <f t="shared" ref="I25:I27" si="8">(G3*G3)-(18*(($H$22)*($H$22)))</f>
         <v>-7.69819097179737E+55</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="43">
         <f t="shared" ref="J25:J28" si="9">H25/I25</f>
         <v>6.8947697699782056E-17</v>
       </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="113">
+        <f>ABS(((N24-$N$33)/$N$33))</f>
+        <v>0.68661183742743215</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="113">
+        <f>ABS(((Q24-$N$33)/$N$33))</f>
+        <v>0.68143178467123378</v>
+      </c>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="18">
         <f t="shared" ref="A26:A41" si="10">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="20">
         <f t="shared" si="4"/>
         <v>-4.2288531253303172E+47</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="27">
         <f t="shared" si="5"/>
         <v>-1.3316402887308143E+63</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="44">
         <f t="shared" si="6"/>
         <v>3.1756722600822139E-16</v>
       </c>
       <c r="E26" s="76"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="36">
+      <c r="F26" s="12"/>
+      <c r="G26" s="18">
         <f t="shared" ref="G26:G27" si="11">G25+1</f>
         <v>3</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="52">
         <f t="shared" si="7"/>
         <v>-4.8675481164432644E+39</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="42">
         <f t="shared" si="8"/>
         <v>-7.5569163224676364E+55</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="43">
         <f t="shared" si="9"/>
         <v>6.4411830285475683E-17</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="18">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="20">
         <f t="shared" si="4"/>
         <v>-4.2288529912668243E+47</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="27">
         <f t="shared" si="5"/>
         <v>-1.3316402457014236E+63</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="44">
         <f t="shared" si="6"/>
         <v>3.1756722620224902E-16</v>
       </c>
       <c r="E27" s="76"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="36">
+      <c r="F27" s="12"/>
+      <c r="G27" s="18">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="52">
         <f t="shared" si="7"/>
         <v>8.5388011526230316E+39</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="42">
         <f t="shared" si="8"/>
         <v>-3.2539772398420693E+55</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="43">
         <f t="shared" si="9"/>
         <v>-2.6241121320926818E-16</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="105"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="A28" s="18">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="20">
         <f t="shared" si="4"/>
         <v>-4.152692984346073E+47</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="27">
         <f t="shared" si="5"/>
         <v>-1.3075877874716307E+63</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="44">
         <f t="shared" si="6"/>
         <v>3.175842589028593E-16</v>
       </c>
       <c r="E28" s="76"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="88" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="31">
         <f>SUM(H24:H27)</f>
         <v>-6.9708979273744009E+39</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="35">
         <f>SUM(I24:I27)</f>
         <v>-2.6215847649000043E+56</v>
       </c>
-      <c r="J28" s="92">
+      <c r="J28" s="56">
         <f t="shared" si="9"/>
         <v>2.659039684967155E-17</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="58">
-        <f>((4*PI())/(0.0000000000667))/D42</f>
-        <v>5.9323043906876347E+26</v>
-      </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="100">
-        <f>((4*PI())/(0.0000000000667))/J28</f>
-        <v>7.0853157852906098E+27</v>
-      </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
     </row>
     <row r="29" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="18">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="20">
         <f t="shared" si="4"/>
         <v>-4.0623707679208479E+47</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="27">
         <f t="shared" si="5"/>
         <v>-1.2784947465280892E+63</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="44">
         <f t="shared" si="6"/>
         <v>3.177463794006756E-16</v>
       </c>
       <c r="E29" s="76"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="109">
+        <f>((4*PI())/(0.0000000000667))/$D$42</f>
+        <v>5.9323043906876347E+26</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="55">
+        <f>((4*PI())/(0.0000000000667))/$J$28</f>
+        <v>7.0853157852906098E+27</v>
+      </c>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="18">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="20">
         <f t="shared" si="4"/>
         <v>-3.9714493200276673E+47</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="27">
         <f t="shared" si="5"/>
         <v>-1.2525107747652283E+63</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="44">
         <f t="shared" si="6"/>
         <v>3.170790543316547E-16</v>
       </c>
       <c r="E30" s="76"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="36">
+      <c r="F30" s="12"/>
+      <c r="G30" s="18">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="20">
         <f>G2*G2</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="27">
         <f>G2*H2</f>
         <v>1.7533581368011815E+36</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="44">
         <f>((G2*G2)-(4*($H$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="K30" s="85" t="s">
+      <c r="K30" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="113">
+        <f>ABS(((N29-$N$33)/$N$33))</f>
+        <v>0.6874658537251066</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="113">
+        <f>ABS(((Q29-$N$33)/$N$33))</f>
+        <v>2.7327874198767264</v>
+      </c>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="18">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="20">
         <f t="shared" si="4"/>
         <v>-3.9701265592195099E+47</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="27">
         <f t="shared" si="5"/>
         <v>-1.2506598730511701E+63</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="44">
         <f t="shared" si="6"/>
         <v>3.1744254731174818E-16</v>
       </c>
       <c r="E31" s="76"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="36">
+      <c r="F31" s="12"/>
+      <c r="G31" s="18">
         <f>G30+1</f>
         <v>2</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="20">
         <f t="shared" ref="H31:H33" si="12">G3*G3</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="27">
         <f t="shared" ref="I31:I33" si="13">G3*H3</f>
         <v>2.8453442517438307E+37</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="44">
         <f t="shared" ref="J31:J33" si="14">((G3*G3)-(4*($H$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="18">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="20">
         <f t="shared" si="4"/>
         <v>-3.9591362718717439E+47</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="27">
         <f t="shared" si="5"/>
         <v>-1.2473339835428015E+63</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="44">
         <f t="shared" si="6"/>
         <v>3.1740787344113024E-16</v>
       </c>
       <c r="E32" s="76"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="36">
+      <c r="F32" s="12"/>
+      <c r="G32" s="18">
         <f t="shared" ref="G32:G33" si="15">G31+1</f>
         <v>3</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="20">
         <f t="shared" si="12"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="27">
         <f t="shared" si="13"/>
         <v>4.6863076566093936E+38</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="44">
         <f t="shared" si="14"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="K32" s="67"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="18">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="20">
         <f t="shared" si="4"/>
         <v>-3.7694143601663483E+47</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="27">
         <f t="shared" si="5"/>
         <v>-1.1885543414381976E+63</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="44">
         <f t="shared" si="6"/>
         <v>3.1714278672401365E-16</v>
       </c>
       <c r="E33" s="76"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="36">
+      <c r="F33" s="12"/>
+      <c r="G33" s="18">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="20">
         <f t="shared" si="12"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="27">
         <f t="shared" si="13"/>
         <v>1.3874980034727236E+40</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="44">
         <f t="shared" si="14"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="99">
+        <v>1.89813E+27</v>
+      </c>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
     </row>
     <row r="34" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="18">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="20">
         <f t="shared" si="4"/>
         <v>-3.7572281471796835E+47</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="27">
         <f t="shared" si="5"/>
         <v>-1.1862871802567465E+63</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="44">
         <f t="shared" si="6"/>
         <v>3.1672163450055254E-16</v>
       </c>
       <c r="E34" s="76"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="88" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="36">
         <f>SUM(H30:H33)</f>
         <v>4.6134574902631387E+55</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="37">
         <f>SUM(I30:I33)</f>
         <v>1.4373817601042415E+40</v>
       </c>
-      <c r="J34" s="90">
+      <c r="J34" s="54">
         <f>SUM(J30:J33)</f>
         <v>4.6134574902631387E+55</v>
       </c>
-      <c r="K34" s="67"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
     </row>
     <row r="35" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="18">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="20">
         <f t="shared" si="4"/>
         <v>-3.7369393771159689E+47</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="27">
         <f t="shared" si="5"/>
         <v>-1.174902654165147E+63</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="44">
         <f t="shared" si="6"/>
         <v>3.1806374458923441E-16</v>
       </c>
       <c r="E35" s="76"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="61" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="58">
         <f>($H$23)*(H34)</f>
         <v>2.9742761717232685E+67</v>
       </c>
-      <c r="I35" s="89">
+      <c r="I35" s="115">
         <f>($H$22)*(I34)</f>
         <v>2.9743203973810773E+67</v>
       </c>
-      <c r="J35" s="91">
+      <c r="J35" s="61">
         <f>(H35-I35)/J34</f>
         <v>-9586228.5286359545</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="25"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
     </row>
     <row r="36" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="18">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="20">
         <f t="shared" si="4"/>
         <v>-3.7299011256579901E+47</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="27">
         <f t="shared" si="5"/>
         <v>-1.1744972110492811E+63</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="44">
         <f t="shared" si="6"/>
         <v>3.175742854532403E-16</v>
       </c>
       <c r="E36" s="76"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="99" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="18">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="20">
         <f t="shared" si="4"/>
         <v>-3.6870668215524404E+47</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="27">
         <f t="shared" si="5"/>
         <v>-1.1636446153967948E+63</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="44">
         <f t="shared" si="6"/>
         <v>3.1685505804494924E-16</v>
       </c>
       <c r="E37" s="76"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="18">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="20">
         <f t="shared" si="4"/>
         <v>-3.6885512051411234E+47</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="27">
         <f t="shared" si="5"/>
         <v>-1.1597454642950842E+63</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="44">
         <f t="shared" si="6"/>
         <v>3.1804834066612161E-16</v>
       </c>
       <c r="E38" s="76"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="A39" s="18">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="20">
         <f t="shared" si="4"/>
         <v>-3.6849194799175553E+47</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="27">
         <f t="shared" si="5"/>
         <v>-1.157988462131699E+63</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="44">
         <f t="shared" si="6"/>
         <v>3.1821728803187903E-16</v>
       </c>
       <c r="E39" s="76"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="18">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="20">
         <f t="shared" si="4"/>
         <v>-3.6578152845565754E+47</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="27">
         <f t="shared" si="5"/>
         <v>-1.1494369340431084E+63</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="44">
         <f t="shared" si="6"/>
         <v>3.1822670528693775E-16</v>
       </c>
       <c r="E40" s="76"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
     </row>
     <row r="41" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
+      <c r="A41" s="19">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="21">
         <f t="shared" si="4"/>
         <v>-3.6389658534999307E+47</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="27">
         <f t="shared" si="5"/>
         <v>-1.1433860025787315E+63</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="45">
         <f t="shared" si="6"/>
         <v>3.1826223561358998E-16</v>
       </c>
       <c r="E41" s="76"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
     </row>
     <row r="42" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="31">
         <f>SUM(B24:B41)</f>
         <v>-7.0381989934501777E+48</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="35">
         <f>SUM(C24:C41)</f>
         <v>-2.2161591145518792E+64</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="46">
         <f t="shared" si="6"/>
         <v>3.1758545436722147E-16</v>
       </c>
       <c r="E42" s="77"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
     </row>
     <row r="43" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
     </row>
     <row r="44" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="A44" s="18">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="20">
         <f>(G2*G2)</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="27">
         <f>G2*H2</f>
         <v>1.7533581368011815E+36</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="44">
         <f>((G2*G2)-(18*($B$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
     </row>
     <row r="45" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="18">
         <f>A44+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="20">
         <f t="shared" ref="B45:B61" si="16">(G3*G3)</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="27">
         <f t="shared" ref="C45:C61" si="17">G3*H3</f>
         <v>2.8453442517438307E+37</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="44">
         <f t="shared" ref="D45:D61" si="18">((G3*G3)-(18*($B$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
     </row>
     <row r="46" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+      <c r="A46" s="18">
         <f t="shared" ref="A46:A61" si="19">A45+1</f>
         <v>3</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="20">
         <f t="shared" si="16"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="27">
         <f t="shared" si="17"/>
         <v>4.6863076566093936E+38</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="44">
         <f t="shared" si="18"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
     </row>
     <row r="47" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+      <c r="A47" s="18">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="20">
         <f t="shared" si="16"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="27">
         <f t="shared" si="17"/>
         <v>1.3874980034727236E+40</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="44">
         <f t="shared" si="18"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="18">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="20">
         <f t="shared" si="16"/>
         <v>2.4052502763283338E+61</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="27">
         <f t="shared" si="17"/>
         <v>7.6160145670551767E+45</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="44">
         <f t="shared" si="18"/>
         <v>2.4052502763283338E+61</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
     </row>
     <row r="49" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+      <c r="A49" s="18">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="20">
         <f t="shared" si="16"/>
         <v>5.3145543706824755E+61</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="27">
         <f t="shared" si="17"/>
         <v>1.6648236209577638E+46</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="44">
         <f t="shared" si="18"/>
         <v>5.3145543706824755E+61</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
     </row>
     <row r="50" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+      <c r="A50" s="18">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="20">
         <f t="shared" si="16"/>
         <v>7.9129515469685652E+61</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="27">
         <f t="shared" si="17"/>
         <v>2.5740380998895703E+46</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="44">
         <f t="shared" si="18"/>
         <v>7.9129515469685652E+61</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
     </row>
     <row r="51" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="18">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="20">
         <f t="shared" si="16"/>
         <v>8.0980417183743995E+61</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="27">
         <f t="shared" si="17"/>
         <v>2.5872657079711518E+46</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="44">
         <f t="shared" si="18"/>
         <v>8.0980417183743995E+61</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
     </row>
     <row r="52" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="18">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="20">
         <f t="shared" si="16"/>
         <v>8.4306306692112461E+61</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="27">
         <f t="shared" si="17"/>
         <v>2.6971685814488062E+46</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="44">
         <f t="shared" si="18"/>
         <v>8.4306306692112461E+61</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
     </row>
     <row r="53" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+      <c r="A53" s="18">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="20">
         <f t="shared" si="16"/>
         <v>1.430859487967163E+62</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="27">
         <f t="shared" si="17"/>
         <v>4.5943876985027616E+46</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D53" s="44">
         <f t="shared" si="18"/>
         <v>1.430859487967163E+62</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
     </row>
     <row r="54" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="18">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="20">
         <f t="shared" si="16"/>
         <v>1.4535310997816755E+62</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="27">
         <f t="shared" si="17"/>
         <v>4.7162498283694091E+46</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="44">
         <f t="shared" si="18"/>
         <v>1.4535310997816755E+62</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
     </row>
     <row r="55" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
+      <c r="A55" s="18">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="20">
         <f t="shared" si="16"/>
         <v>1.5673763606976707E+62</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="27">
         <f t="shared" si="17"/>
         <v>4.9191375290065573E+46</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="44">
         <f t="shared" si="18"/>
         <v>1.5673763606976707E+62</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
     </row>
     <row r="56" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+      <c r="A56" s="18">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="20">
         <f t="shared" si="16"/>
         <v>1.571430791856329E+62</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="27">
         <f t="shared" si="17"/>
         <v>4.989520043586347E+46</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="44">
         <f t="shared" si="18"/>
         <v>1.571430791856329E+62</v>
       </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
     </row>
     <row r="57" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="A57" s="18">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="20">
         <f t="shared" si="16"/>
         <v>1.6799567483811908E+62</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="27">
         <f t="shared" si="17"/>
         <v>5.4178630846418446E+46</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="44">
         <f t="shared" si="18"/>
         <v>1.6799567483811908E+62</v>
       </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
     </row>
     <row r="58" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+      <c r="A58" s="18">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="20">
         <f t="shared" si="16"/>
         <v>1.7189482593982965E+62</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="27">
         <f t="shared" si="17"/>
         <v>5.4030192487550106E+46</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="44">
         <f t="shared" si="18"/>
         <v>1.7189482593982965E+62</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
     </row>
     <row r="59" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+      <c r="A59" s="18">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="20">
         <f t="shared" si="16"/>
         <v>1.7365182810321493E+62</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="27">
         <f t="shared" si="17"/>
         <v>5.4393365009906917E+46</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="44">
         <f t="shared" si="18"/>
         <v>1.7365182810321493E+62</v>
       </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
     </row>
     <row r="60" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+      <c r="A60" s="18">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60" s="20">
         <f t="shared" si="16"/>
         <v>1.8220335619180562E+62</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="27">
         <f t="shared" si="17"/>
         <v>5.7103784546004897E+46</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="44">
         <f t="shared" si="18"/>
         <v>1.8220335619180562E+62</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
     </row>
     <row r="61" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
+      <c r="A61" s="19">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="20">
         <f t="shared" si="16"/>
         <v>1.8825428765618248E+62</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="27">
         <f t="shared" si="17"/>
         <v>5.8988727651669404E+46</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="44">
         <f t="shared" si="18"/>
         <v>1.8825428765618248E+62</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
     </row>
     <row r="62" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="36">
         <f>SUM(B44:B61)</f>
         <v>1.8079340787096609E+63</v>
       </c>
-      <c r="C62" s="64">
+      <c r="C62" s="37">
         <f>SUM(C44:C61)</f>
         <v>5.737366405797463E+47</v>
       </c>
-      <c r="D62" s="79">
+      <c r="D62" s="48">
         <f>SUM(D44:D61)</f>
         <v>1.8079340787096609E+63</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
     </row>
     <row r="63" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="94">
+      <c r="B63" s="58">
         <f>($B$23)*(B62)</f>
         <v>4.9382773458459994E+78</v>
       </c>
-      <c r="C63" s="95">
+      <c r="C63" s="59">
         <f>($B$22)*(C62)</f>
         <v>4.9348027372967931E+78</v>
       </c>
-      <c r="D63" s="80">
+      <c r="D63" s="49">
         <f>(B63-C63)/(D62)</f>
         <v>1921866836918.1565</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
     </row>
     <row r="64" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="96" t="s">
+      <c r="A64" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="25"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="E44:E63"/>
-    <mergeCell ref="E24:E42"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="H22:K22"/>
+  <mergeCells count="54">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
@@ -6174,18 +6321,38 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="E44:E63"/>
+    <mergeCell ref="E24:E42"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B19" r:id="rId1" display="Io" xr:uid="{568683D6-1B8A-0E48-BB6A-9608824516C4}"/>
+    <hyperlink ref="M32:Q32" r:id="rId2" display="Actual Mass" xr:uid="{82472911-C3C9-2E40-AB77-675781E87536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04BC24-6A74-7243-9366-8BA35F0A38AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098E9FF-124D-4545-9D05-03FFC3E0B6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BF4D8837-18DE-1C42-92A8-8B28EC7A2714}"/>
   </bookViews>
@@ -190,8 +190,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -940,6 +940,147 @@
     <xf numFmtId="11" fontId="2" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="30" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,18 +1093,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,135 +1100,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="30" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFBB5D1-D9E7-5D44-B10E-1D2EA805C34C}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3747,10 +3747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3770,11 +3770,11 @@
         <v>27</v>
       </c>
       <c r="I1" s="12"/>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -3786,10 +3786,10 @@
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2">
         <v>421.8</v>
       </c>
@@ -3814,10 +3814,10 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="89"/>
+      <c r="L2" s="86"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -3829,10 +3829,10 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="2">
         <v>671.1</v>
       </c>
@@ -3856,9 +3856,9 @@
         <v>94139763247.931091</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -3870,10 +3870,10 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="2">
         <v>1070.4000000000001</v>
       </c>
@@ -3898,10 +3898,10 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="94"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -3913,10 +3913,10 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="2">
         <v>1882.7</v>
       </c>
@@ -3954,10 +3954,10 @@
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="4">
         <v>16990</v>
       </c>
@@ -3995,10 +3995,10 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="4">
         <v>19390</v>
       </c>
@@ -4036,10 +4036,10 @@
       <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="4">
         <v>20720</v>
       </c>
@@ -4077,10 +4077,10 @@
       <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="4">
         <v>20800</v>
       </c>
@@ -4118,10 +4118,10 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="84"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="4">
         <v>20940</v>
       </c>
@@ -4159,10 +4159,10 @@
       <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="4">
         <v>22870</v>
       </c>
@@ -4200,10 +4200,10 @@
       <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="4">
         <v>22930</v>
       </c>
@@ -4241,10 +4241,10 @@
       <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="4">
         <v>23220</v>
       </c>
@@ -4282,10 +4282,10 @@
       <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="4">
         <v>23230</v>
       </c>
@@ -4323,10 +4323,10 @@
       <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="4">
         <v>23490</v>
       </c>
@@ -4364,10 +4364,10 @@
       <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="4">
         <v>23580</v>
       </c>
@@ -4405,10 +4405,10 @@
       <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="4">
         <v>23620</v>
       </c>
@@ -4446,10 +4446,10 @@
       <c r="U17" s="12"/>
     </row>
     <row r="18" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="4">
         <v>23810</v>
       </c>
@@ -4487,10 +4487,10 @@
       <c r="U18" s="12"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="4">
         <v>23940</v>
       </c>
@@ -4551,29 +4551,29 @@
       <c r="U20" s="12"/>
     </row>
     <row r="21" spans="1:21" ht="32" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="78" t="s">
+      <c r="G21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
@@ -4583,34 +4583,34 @@
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="98">
         <f>AVERAGE(G2:G19)</f>
         <v>8.6011636494233669E+30</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="12"/>
       <c r="G22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="98">
         <f>AVERAGE(G2:G5)</f>
         <v>2.0692626551525004E+27</v>
       </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="104" t="s">
+      <c r="M22" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="105"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="65" t="s">
+      <c r="P22" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="65"/>
+      <c r="Q22" s="112"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
@@ -4620,29 +4620,29 @@
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="100">
         <f>AVERAGE(H2:H19)</f>
         <v>2731447680531855</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="24"/>
       <c r="G23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="100">
         <f>AVERAGE(H2:H5)</f>
         <v>644695692547.41833</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="106" t="s">
+      <c r="M23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="65" t="s">
         <v>40</v>
       </c>
       <c r="O23" s="15"/>
@@ -4674,7 +4674,7 @@
         <f>B24/C24</f>
         <v>3.1756722600147263E-16</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="105" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="24"/>
@@ -4694,24 +4694,24 @@
         <f>H24/I24</f>
         <v>6.9217458022796458E-17</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="113" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="12"/>
-      <c r="M24" s="110" t="s">
+      <c r="M24" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="109">
-        <f>((4*PI())/(0.0000000000667))/(3.1672E-16)</f>
-        <v>5.9485147302386819E+26</v>
+      <c r="N24" s="66">
+        <f>((4*(PI()*PI()))/(0.0000000000667))/(3.1672E-16)</f>
+        <v>1.8687810176288513E+27</v>
       </c>
       <c r="O24" s="15"/>
-      <c r="P24" s="111" t="s">
+      <c r="P24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="109">
-        <f>((4*PI())/(0.0000000000667))/(3.1157E-16)</f>
-        <v>6.0468388656199102E+26</v>
+      <c r="Q24" s="66">
+        <f>((4*(PI()*PI()))/(0.0000000000667))/(3.1157E-16)</f>
+        <v>1.8996704557672748E+27</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
@@ -4735,7 +4735,7 @@
         <f t="shared" ref="D25:D42" si="6">B25/C25</f>
         <v>3.175672260018648E-16</v>
       </c>
-      <c r="E25" s="76"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="24"/>
       <c r="G25" s="18">
         <f>G24+1</f>
@@ -4753,22 +4753,22 @@
         <f t="shared" ref="J25:J28" si="9">H25/I25</f>
         <v>6.8947697699782056E-17</v>
       </c>
-      <c r="K25" s="71"/>
+      <c r="K25" s="114"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="103" t="s">
+      <c r="M25" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="113">
+      <c r="N25" s="69">
         <f>ABS(((N24-$N$33)/$N$33))</f>
-        <v>0.68661183742743215</v>
+        <v>1.5462050740017084E-2</v>
       </c>
       <c r="O25" s="15"/>
-      <c r="P25" s="103" t="s">
+      <c r="P25" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="113">
+      <c r="Q25" s="69">
         <f>ABS(((Q24-$N$33)/$N$33))</f>
-        <v>0.68143178467123378</v>
+        <v>8.1156494406327295E-4</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
@@ -4792,7 +4792,7 @@
         <f t="shared" si="6"/>
         <v>3.1756722600822139E-16</v>
       </c>
-      <c r="E26" s="76"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="12"/>
       <c r="G26" s="18">
         <f t="shared" ref="G26:G27" si="11">G25+1</f>
@@ -4810,7 +4810,7 @@
         <f t="shared" si="9"/>
         <v>6.4411830285475683E-17</v>
       </c>
-      <c r="K26" s="71"/>
+      <c r="K26" s="114"/>
       <c r="L26" s="12"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -4839,7 +4839,7 @@
         <f t="shared" si="6"/>
         <v>3.1756722620224902E-16</v>
       </c>
-      <c r="E27" s="76"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="12"/>
       <c r="G27" s="18">
         <f t="shared" si="11"/>
@@ -4857,17 +4857,17 @@
         <f t="shared" si="9"/>
         <v>-2.6241121320926818E-16</v>
       </c>
-      <c r="K27" s="71"/>
+      <c r="K27" s="114"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="104" t="s">
+      <c r="M27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="105"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="104" t="s">
+      <c r="P27" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="105"/>
+      <c r="Q27" s="75"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
@@ -4890,7 +4890,7 @@
         <f t="shared" si="6"/>
         <v>3.175842589028593E-16</v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53" t="s">
         <v>38</v>
@@ -4907,19 +4907,19 @@
         <f t="shared" si="9"/>
         <v>2.659039684967155E-17</v>
       </c>
-      <c r="K28" s="71"/>
+      <c r="K28" s="114"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="106" t="s">
+      <c r="M28" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="108" t="s">
+      <c r="N28" s="65" t="s">
         <v>40</v>
       </c>
       <c r="O28" s="15"/>
-      <c r="P28" s="106" t="s">
+      <c r="P28" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="108" t="s">
+      <c r="Q28" s="65" t="s">
         <v>40</v>
       </c>
       <c r="R28" s="12"/>
@@ -4944,7 +4944,7 @@
         <f t="shared" si="6"/>
         <v>3.177463794006756E-16</v>
       </c>
-      <c r="E29" s="76"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="12"/>
       <c r="G29" s="47"/>
       <c r="H29" s="15"/>
@@ -4952,20 +4952,20 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="109">
-        <f>((4*PI())/(0.0000000000667))/$D$42</f>
-        <v>5.9323043906876347E+26</v>
+      <c r="N29" s="66">
+        <f>((4*(PI()*PI()))/(0.0000000000667))/$D$42</f>
+        <v>1.8636883892642747E+27</v>
       </c>
       <c r="O29" s="15"/>
-      <c r="P29" s="107" t="s">
+      <c r="P29" s="64" t="s">
         <v>29</v>
       </c>
       <c r="Q29" s="55">
-        <f>((4*PI())/(0.0000000000667))/$J$28</f>
-        <v>7.0853157852906098E+27</v>
+        <f>((4*(PI()*PI()))/(0.0000000000667))/$J$28</f>
+        <v>2.2259176019432775E+28</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
@@ -4989,7 +4989,7 @@
         <f t="shared" si="6"/>
         <v>3.170790543316547E-16</v>
       </c>
-      <c r="E30" s="76"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="12"/>
       <c r="G30" s="18">
         <f>1</f>
@@ -5007,24 +5007,24 @@
         <f>((G2*G2)-(4*($H$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="K30" s="113" t="s">
         <v>37</v>
       </c>
       <c r="L30" s="12"/>
-      <c r="M30" s="103" t="s">
+      <c r="M30" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="113">
+      <c r="N30" s="69">
         <f>ABS(((N29-$N$33)/$N$33))</f>
-        <v>0.6874658537251066</v>
+        <v>1.8145022066836984E-2</v>
       </c>
       <c r="O30" s="15"/>
-      <c r="P30" s="103" t="s">
+      <c r="P30" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="113">
+      <c r="Q30" s="69">
         <f>ABS(((Q29-$N$33)/$N$33))</f>
-        <v>2.7327874198767264</v>
+        <v>10.726897535697121</v>
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
@@ -5048,7 +5048,7 @@
         <f t="shared" si="6"/>
         <v>3.1744254731174818E-16</v>
       </c>
-      <c r="E31" s="76"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="12"/>
       <c r="G31" s="18">
         <f>G30+1</f>
@@ -5066,7 +5066,7 @@
         <f t="shared" ref="J31:J33" si="14">((G3*G3)-(4*($H$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="K31" s="72"/>
+      <c r="K31" s="115"/>
       <c r="L31" s="12"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -5095,7 +5095,7 @@
         <f t="shared" si="6"/>
         <v>3.1740787344113024E-16</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="12"/>
       <c r="G32" s="18">
         <f t="shared" ref="G32:G33" si="15">G31+1</f>
@@ -5113,15 +5113,15 @@
         <f t="shared" si="14"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="K32" s="72"/>
+      <c r="K32" s="115"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="112" t="s">
+      <c r="M32" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
@@ -5144,7 +5144,7 @@
         <f t="shared" si="6"/>
         <v>3.1714278672401365E-16</v>
       </c>
-      <c r="E33" s="76"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="12"/>
       <c r="G33" s="18">
         <f t="shared" si="15"/>
@@ -5162,17 +5162,17 @@
         <f t="shared" si="14"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="K33" s="72"/>
+      <c r="K33" s="115"/>
       <c r="L33" s="12"/>
       <c r="M33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="99">
+      <c r="N33" s="77">
         <v>1.89813E+27</v>
       </c>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="79"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
@@ -5195,7 +5195,7 @@
         <f t="shared" si="6"/>
         <v>3.1672163450055254E-16</v>
       </c>
-      <c r="E34" s="76"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="12"/>
       <c r="G34" s="53" t="s">
         <v>38</v>
@@ -5212,13 +5212,13 @@
         <f>SUM(J30:J33)</f>
         <v>4.6134574902631387E+55</v>
       </c>
-      <c r="K34" s="72"/>
+      <c r="K34" s="115"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
@@ -5241,7 +5241,7 @@
         <f t="shared" si="6"/>
         <v>3.1806374458923441E-16</v>
       </c>
-      <c r="E35" s="76"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="12"/>
       <c r="G35" s="57" t="s">
         <v>39</v>
@@ -5250,7 +5250,7 @@
         <f>($H$23)*(H34)</f>
         <v>2.9742761717232685E+67</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="70">
         <f>($H$22)*(I34)</f>
         <v>2.9743203973810773E+67</v>
       </c>
@@ -5258,13 +5258,13 @@
         <f>(H35-I35)/J34</f>
         <v>-9586228.5286359545</v>
       </c>
-      <c r="K35" s="72"/>
+      <c r="K35" s="115"/>
       <c r="L35" s="12"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
@@ -5287,17 +5287,17 @@
         <f t="shared" si="6"/>
         <v>3.175742854532403E-16</v>
       </c>
-      <c r="E36" s="76"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="12"/>
       <c r="G36" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
       <c r="L36" s="12"/>
       <c r="M36" s="24"/>
       <c r="N36" s="12"/>
@@ -5326,14 +5326,14 @@
         <f t="shared" si="6"/>
         <v>3.1685505804494924E-16</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="12"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
       <c r="M37" s="24"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -5361,7 +5361,7 @@
         <f t="shared" si="6"/>
         <v>3.1804834066612161E-16</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="12"/>
       <c r="G38" s="24"/>
       <c r="H38" s="22"/>
@@ -5396,7 +5396,7 @@
         <f t="shared" si="6"/>
         <v>3.1821728803187903E-16</v>
       </c>
-      <c r="E39" s="76"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="12"/>
       <c r="G39" s="24"/>
       <c r="H39" s="25"/>
@@ -5431,7 +5431,7 @@
         <f t="shared" si="6"/>
         <v>3.1822670528693775E-16</v>
       </c>
-      <c r="E40" s="76"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="12"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -5466,7 +5466,7 @@
         <f t="shared" si="6"/>
         <v>3.1826223561358998E-16</v>
       </c>
-      <c r="E41" s="76"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -5500,21 +5500,21 @@
         <f t="shared" si="6"/>
         <v>3.1758545436722147E-16</v>
       </c>
-      <c r="E42" s="77"/>
+      <c r="E42" s="107"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
     </row>
@@ -5527,17 +5527,17 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
       <c r="Q43" s="24"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="102"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
     </row>
@@ -5558,7 +5558,7 @@
         <f>((G2*G2)-(18*($B$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="103" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="12"/>
@@ -5595,7 +5595,7 @@
         <f t="shared" ref="D45:D61" si="18">((G3*G3)-(18*($B$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="E45" s="74"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -5630,7 +5630,7 @@
         <f t="shared" si="18"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="E46" s="74"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -5665,7 +5665,7 @@
         <f t="shared" si="18"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="E47" s="74"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -5700,16 +5700,16 @@
         <f t="shared" si="18"/>
         <v>2.4052502763283338E+61</v>
       </c>
-      <c r="E48" s="74"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -5735,16 +5735,16 @@
         <f t="shared" si="18"/>
         <v>5.3145543706824755E+61</v>
       </c>
-      <c r="E49" s="74"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="24"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
       <c r="L49" s="24"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -5770,7 +5770,7 @@
         <f t="shared" si="18"/>
         <v>7.9129515469685652E+61</v>
       </c>
-      <c r="E50" s="74"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -5805,7 +5805,7 @@
         <f t="shared" si="18"/>
         <v>8.0980417183743995E+61</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -5840,7 +5840,7 @@
         <f t="shared" si="18"/>
         <v>8.4306306692112461E+61</v>
       </c>
-      <c r="E52" s="74"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -5875,7 +5875,7 @@
         <f t="shared" si="18"/>
         <v>1.430859487967163E+62</v>
       </c>
-      <c r="E53" s="74"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -5910,7 +5910,7 @@
         <f t="shared" si="18"/>
         <v>1.4535310997816755E+62</v>
       </c>
-      <c r="E54" s="74"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -5945,7 +5945,7 @@
         <f t="shared" si="18"/>
         <v>1.5673763606976707E+62</v>
       </c>
-      <c r="E55" s="74"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -5980,7 +5980,7 @@
         <f t="shared" si="18"/>
         <v>1.571430791856329E+62</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -6015,7 +6015,7 @@
         <f t="shared" si="18"/>
         <v>1.6799567483811908E+62</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -6050,7 +6050,7 @@
         <f t="shared" si="18"/>
         <v>1.7189482593982965E+62</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -6085,7 +6085,7 @@
         <f t="shared" si="18"/>
         <v>1.7365182810321493E+62</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="104"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6120,7 +6120,7 @@
         <f t="shared" si="18"/>
         <v>1.8220335619180562E+62</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -6155,7 +6155,7 @@
         <f t="shared" si="18"/>
         <v>1.8825428765618248E+62</v>
       </c>
-      <c r="E61" s="74"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -6189,7 +6189,7 @@
         <f>SUM(D44:D61)</f>
         <v>1.8079340787096609E+63</v>
       </c>
-      <c r="E62" s="74"/>
+      <c r="E62" s="104"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -6223,7 +6223,7 @@
         <f>(B63-C63)/(D62)</f>
         <v>1921866836918.1565</v>
       </c>
-      <c r="E63" s="74"/>
+      <c r="E63" s="104"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -6245,12 +6245,12 @@
       <c r="A64" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="110"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -6293,46 +6293,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="E44:E63"/>
-    <mergeCell ref="E24:E42"/>
-    <mergeCell ref="N35:Q35"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="M21:Q21"/>
@@ -6347,6 +6307,46 @@
     <mergeCell ref="I42:M42"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="E44:E63"/>
+    <mergeCell ref="E24:E42"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B19" r:id="rId1" display="Io" xr:uid="{568683D6-1B8A-0E48-BB6A-9608824516C4}"/>

--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/MoonsOfJupiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098E9FF-124D-4545-9D05-03FFC3E0B6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568EE597-30A0-EA48-987D-DECFC324314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BF4D8837-18DE-1C42-92A8-8B28EC7A2714}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Moons</t>
   </si>
@@ -64,12 +64,6 @@
     <t xml:space="preserve">Orbital Period (seconds) </t>
   </si>
   <si>
-    <t>Carpo</t>
-  </si>
-  <si>
-    <t>Euporie</t>
-  </si>
-  <si>
     <t>Orthosie</t>
   </si>
   <si>
@@ -79,13 +73,7 @@
     <t>Thyone</t>
   </si>
   <si>
-    <t>Eurydome</t>
-  </si>
-  <si>
     <t>Arche</t>
-  </si>
-  <si>
-    <t>Isonoe</t>
   </si>
   <si>
     <t>Aitne</t>
@@ -101,9 +89,6 @@
   </si>
   <si>
     <t>Megaclite</t>
-  </si>
-  <si>
-    <t>Sinope</t>
   </si>
   <si>
     <t>Color Key</t>
@@ -166,9 +151,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>y = 3.17585E-16x + 1.92E+12</t>
-  </si>
-  <si>
     <t>y = 2.66E-17x - 9.59E+06</t>
   </si>
   <si>
@@ -183,6 +165,39 @@
   <si>
     <t>Via Least Square Fit (Gallilean Moons)</t>
   </si>
+  <si>
+    <t>Hermippe</t>
+  </si>
+  <si>
+    <t>Thelxinoe</t>
+  </si>
+  <si>
+    <t>Helike</t>
+  </si>
+  <si>
+    <t>Ananke</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>y = 3.15905E-16x + 2.50E+12</t>
+  </si>
+  <si>
+    <t>Mass Calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Graph: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Equation: </t>
+  </si>
+  <si>
+    <t>By Equation:</t>
+  </si>
+  <si>
+    <t>Gallileans</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,8 +302,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,24 +336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,12 +348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,18 +355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +451,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3753"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6E7B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,205 +784,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="24" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="30" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,125 +935,210 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1112,6 +1150,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6E7B"/>
+      <color rgb="FFFF3753"/>
+      <color rgb="FFDE0000"/>
       <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
@@ -1165,7 +1206,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs R^3 (All Moons)</a:t>
+              <a:t> vs. R^3 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1234,7 +1275,7 @@
             <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1301,10 +1342,10 @@
                   <c:v>6.6733417752830005E+27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9043350989999997E+30</c:v>
+                  <c:v>9.4340568969999999E+30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2900990189999997E+30</c:v>
+                  <c:v>9.4742968960000003E+30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.895477248E+30</c:v>
@@ -1316,13 +1357,13 @@
                   <c:v>9.1818465839999998E+30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1961853902999999E+31</c:v>
+                  <c:v>9.6092563759999996E+30</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.2056247757000001E+31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2519490247999999E+31</c:v>
+                  <c:v>9.6364011519999997E+30</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.2535672267E+31</c:v>
@@ -1340,7 +1381,7 @@
                   <c:v>1.3498272341E+31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3720578984E+31</c:v>
+                  <c:v>1.4778272663999998E+31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1405,10 @@
                   <c:v>2079165207170.7104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1552914801561600.5</c:v>
+                  <c:v>2999638979481599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2283677651865600.5</c:v>
+                  <c:v>2944998458265601</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2893648118169601</c:v>
@@ -1379,13 +1420,13 @@
                   <c:v>2937501249638399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3840865919078398</c:v>
+                  <c:v>3008162694758399</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3911872021401599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3929183562240000</c:v>
+                  <c:v>2960961752678399</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3980257250918402</c:v>
@@ -1403,7 +1444,7 @@
                   <c:v>4230451357286398</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4299288515481600</c:v>
+                  <c:v>4532370171494402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,11 +1735,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent6">
-          <a:lumMod val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1760,7 +1797,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs R^3 (Gallilean Moons)</a:t>
+              <a:t> vs R^3 [Gallileans]</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1830,9 +1867,7 @@
             <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -2206,11 +2241,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent2">
-          <a:lumMod val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3386,15 +3417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>131457</xdr:colOff>
+      <xdr:colOff>436257</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>22281</xdr:rowOff>
+      <xdr:rowOff>123881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>45897</xdr:rowOff>
+      <xdr:rowOff>147497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3721,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFBB5D1-D9E7-5D44-B10E-1D2EA805C34C}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="115" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3747,2580 +3778,2590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="G1" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="J1" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="2">
+      <c r="B2" s="93"/>
+      <c r="C2" s="98">
         <v>421.8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="98">
         <f>C2*1000000</f>
         <v>421800000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="98">
         <v>1.7691380000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="99">
         <f>E2*24*60*60</f>
         <v>152853.52320000003</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="100">
         <f>D2*D2*D2</f>
         <v>7.5044648232000002E+25</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="100">
         <f>F2*F2</f>
         <v>23364199554.652946</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="2">
+      <c r="B3" s="93"/>
+      <c r="C3" s="98">
         <v>671.1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="98">
         <f t="shared" ref="D3:D19" si="0">C3*1000000</f>
         <v>671100000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="98">
         <v>3.5511810000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="99">
         <f t="shared" ref="F3:F19" si="1">E3*24*60*60</f>
         <v>306822.03840000002</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="100">
         <f t="shared" ref="G3:G19" si="2">D3*D3*D3</f>
         <v>3.0224680343100001E+26</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="100">
         <f t="shared" ref="H3:H19" si="3">F3*F3</f>
         <v>94139763247.931091</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
     </row>
     <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="2">
+      <c r="B4" s="93"/>
+      <c r="C4" s="98">
         <v>1070.4000000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="98">
         <f t="shared" si="0"/>
         <v>1070400000.0000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="98">
         <v>7.1545529999999999</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="99">
         <f t="shared" si="1"/>
         <v>618153.37919999997</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="100">
         <f t="shared" si="2"/>
         <v>1.2264173936640004E+27</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="100">
         <f t="shared" si="3"/>
         <v>382113600216.37897</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="2">
+      <c r="B5" s="93"/>
+      <c r="C5" s="98">
         <v>1882.7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="98">
         <f t="shared" si="0"/>
         <v>1882700000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="98">
         <v>16.689017</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="99">
         <f t="shared" si="1"/>
         <v>1441931.0688</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="100">
         <f t="shared" si="2"/>
         <v>6.6733417752830005E+27</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="100">
         <f t="shared" si="3"/>
         <v>2079165207170.7104</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="4">
-        <v>16990</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="A6" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109">
+        <v>21130</v>
+      </c>
+      <c r="D6" s="109">
         <f t="shared" si="0"/>
-        <v>16990000000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>456.1</v>
-      </c>
-      <c r="F6" s="5">
+        <v>21130000000</v>
+      </c>
+      <c r="E6" s="109">
+        <v>633.9</v>
+      </c>
+      <c r="F6" s="110">
         <f t="shared" si="1"/>
-        <v>39407040.000000007</v>
-      </c>
-      <c r="G6" s="9">
+        <v>54768959.999999993</v>
+      </c>
+      <c r="G6" s="111">
         <f t="shared" si="2"/>
-        <v>4.9043350989999997E+30</v>
-      </c>
-      <c r="H6" s="9">
+        <v>9.4340568969999999E+30</v>
+      </c>
+      <c r="H6" s="111">
         <f t="shared" si="3"/>
-        <v>1552914801561600.5</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+        <v>2999638979481599</v>
+      </c>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="4">
-        <v>19390</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109">
+        <v>21160</v>
+      </c>
+      <c r="D7" s="109">
         <f t="shared" si="0"/>
-        <v>19390000000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>553.1</v>
-      </c>
-      <c r="F7" s="5">
+        <v>21160000000</v>
+      </c>
+      <c r="E7" s="109">
+        <v>628.1</v>
+      </c>
+      <c r="F7" s="110">
         <f t="shared" si="1"/>
-        <v>47787840.000000007</v>
-      </c>
-      <c r="G7" s="9">
+        <v>54267840.000000007</v>
+      </c>
+      <c r="G7" s="111">
         <f t="shared" si="2"/>
-        <v>7.2900990189999997E+30</v>
-      </c>
-      <c r="H7" s="9">
+        <v>9.4742968960000003E+30</v>
+      </c>
+      <c r="H7" s="111">
         <f t="shared" si="3"/>
-        <v>2283677651865600.5</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+        <v>2944998458265601</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="4">
+      <c r="A8" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109">
         <v>20720</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="109">
         <f t="shared" si="0"/>
         <v>20720000000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="109">
         <v>622.6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="110">
         <f t="shared" si="1"/>
         <v>53792640.000000007</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="111">
         <f t="shared" si="2"/>
         <v>8.895477248E+30</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="111">
         <f t="shared" si="3"/>
         <v>2893648118169601</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="4">
+      <c r="A9" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109">
         <v>20800</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="109">
         <f t="shared" si="0"/>
         <v>20800000000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="109">
         <v>620.6</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="110">
         <f t="shared" si="1"/>
         <v>53619840.000000007</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="111">
         <f t="shared" si="2"/>
         <v>8.9989119999999996E+30</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="111">
         <f t="shared" si="3"/>
         <v>2875087241625601</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
     </row>
     <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="4">
+      <c r="A10" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109">
         <v>20940</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="109">
         <f t="shared" si="0"/>
         <v>20940000000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="109">
         <v>627.29999999999995</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="110">
         <f t="shared" si="1"/>
         <v>54198719.999999993</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="111">
         <f t="shared" si="2"/>
         <v>9.1818465839999998E+30</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="111">
         <f t="shared" si="3"/>
         <v>2937501249638399</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="4">
-        <v>22870</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="A11" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109">
+        <v>21260</v>
+      </c>
+      <c r="D11" s="109">
         <f t="shared" si="0"/>
-        <v>22870000000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>717.3</v>
-      </c>
-      <c r="F11" s="5">
+        <v>21260000000</v>
+      </c>
+      <c r="E11" s="109">
+        <v>634.79999999999995</v>
+      </c>
+      <c r="F11" s="110">
         <f t="shared" si="1"/>
-        <v>61974719.999999985</v>
-      </c>
-      <c r="G11" s="9">
+        <v>54846719.999999993</v>
+      </c>
+      <c r="G11" s="111">
         <f t="shared" si="2"/>
-        <v>1.1961853902999999E+31</v>
-      </c>
-      <c r="H11" s="9">
+        <v>9.6092563759999996E+30</v>
+      </c>
+      <c r="H11" s="111">
         <f t="shared" si="3"/>
-        <v>3840865919078398</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+        <v>3008162694758399</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="4">
+      <c r="A12" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109">
         <v>22930</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="109">
         <f t="shared" si="0"/>
         <v>22930000000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="109">
         <v>723.9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="110">
         <f t="shared" si="1"/>
         <v>62544959.999999993</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="111">
         <f t="shared" si="2"/>
         <v>1.2056247757000001E+31</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="111">
         <f t="shared" si="3"/>
         <v>3911872021401599</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="4">
-        <v>23220</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109">
+        <v>21280</v>
+      </c>
+      <c r="D13" s="109">
         <f t="shared" si="0"/>
-        <v>23220000000</v>
-      </c>
-      <c r="E13" s="4">
-        <v>725.5</v>
-      </c>
-      <c r="F13" s="5">
+        <v>21280000000</v>
+      </c>
+      <c r="E13" s="109">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="F13" s="110">
         <f t="shared" si="1"/>
-        <v>62683200</v>
-      </c>
-      <c r="G13" s="9">
+        <v>54414719.999999993</v>
+      </c>
+      <c r="G13" s="111">
         <f t="shared" si="2"/>
-        <v>1.2519490247999999E+31</v>
-      </c>
-      <c r="H13" s="9">
+        <v>9.6364011519999997E+30</v>
+      </c>
+      <c r="H13" s="111">
         <f t="shared" si="3"/>
-        <v>3929183562240000</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+        <v>2960961752678399</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
     </row>
     <row r="14" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="4">
+      <c r="A14" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109">
         <v>23230</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="109">
         <f t="shared" si="0"/>
         <v>23230000000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="109">
         <v>730.2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="110">
         <f t="shared" si="1"/>
         <v>63089280.000000015</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="111">
         <f t="shared" si="2"/>
         <v>1.2535672267E+31</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="111">
         <f t="shared" si="3"/>
         <v>3980257250918402</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
     </row>
     <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="4">
+      <c r="A15" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109">
         <v>23490</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="109">
         <f t="shared" si="0"/>
         <v>23490000000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="109">
         <v>748.3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="110">
         <f t="shared" si="1"/>
         <v>64653119.999999985</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="111">
         <f t="shared" si="2"/>
         <v>1.2961314549000001E+31</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="111">
         <f t="shared" si="3"/>
         <v>4180025925734398</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
     </row>
     <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="4">
+      <c r="A16" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109">
         <v>23580</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="109">
         <f t="shared" si="0"/>
         <v>23580000000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="109">
         <v>743</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="110">
         <f t="shared" si="1"/>
         <v>64195200</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="111">
         <f t="shared" si="2"/>
         <v>1.3110866711999999E+31</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="111">
         <f t="shared" si="3"/>
         <v>4121023703040000</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="4">
+      <c r="A17" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109">
         <v>23620</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="109">
         <f t="shared" si="0"/>
         <v>23620000000</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="109">
         <v>743.6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="110">
         <f t="shared" si="1"/>
         <v>64247040</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="111">
         <f t="shared" si="2"/>
         <v>1.3177701928000001E+31</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="111">
         <f t="shared" si="3"/>
         <v>4127682148761600</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
     </row>
     <row r="18" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="4">
+      <c r="A18" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109">
         <v>23810</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="109">
         <f t="shared" si="0"/>
         <v>23810000000</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="109">
         <v>752.8</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="110">
         <f t="shared" si="1"/>
         <v>65041919.999999985</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="111">
         <f t="shared" si="2"/>
         <v>1.3498272341E+31</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="111">
         <f t="shared" si="3"/>
         <v>4230451357286398</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="4">
-        <v>23940</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="A19" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109">
+        <v>24540</v>
+      </c>
+      <c r="D19" s="109">
         <f t="shared" si="0"/>
-        <v>23940000000</v>
-      </c>
-      <c r="E19" s="4">
-        <v>758.9</v>
-      </c>
-      <c r="F19" s="5">
+        <v>24540000000</v>
+      </c>
+      <c r="E19" s="109">
+        <v>779.2</v>
+      </c>
+      <c r="F19" s="110">
         <f t="shared" si="1"/>
-        <v>65568960</v>
-      </c>
-      <c r="G19" s="9">
+        <v>67322880.000000015</v>
+      </c>
+      <c r="G19" s="111">
         <f t="shared" si="2"/>
-        <v>1.3720578984E+31</v>
-      </c>
-      <c r="H19" s="9">
+        <v>1.4778272663999998E+31</v>
+      </c>
+      <c r="H19" s="111">
         <f t="shared" si="3"/>
-        <v>4299288515481600</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+        <v>4532370171494402</v>
+      </c>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
     </row>
     <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
     </row>
     <row r="21" spans="1:21" ht="32" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="A21" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="98">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="68">
         <f>AVERAGE(G2:G19)</f>
-        <v>8.6011636494233669E+30</v>
-      </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="98">
+        <v>8.7420484678678106E+30</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="68">
         <f>AVERAGE(G2:G5)</f>
         <v>2.0692626551525004E+27</v>
       </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="53"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
     </row>
     <row r="23" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="100">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="55">
         <f>AVERAGE(H2:H19)</f>
-        <v>2731447680531855</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="100">
+        <v>2761458880890255</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="55">
         <f>AVERAGE(H2:H5)</f>
         <v>644695692547.41833</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
     </row>
     <row r="24" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="20">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="21">
         <f>(((G2*H2)-(18*($B$22*$B$23))))</f>
-        <v>-4.2288531299990909E+47</v>
-      </c>
-      <c r="C24" s="42">
+        <v>-4.3453453281604565E+47</v>
+      </c>
+      <c r="C24" s="22">
         <f>(G2*G2)-(18*(($B$22)*($B$22)))</f>
-        <v>-1.3316402902292823E+63</v>
-      </c>
-      <c r="D24" s="43">
+        <v>-1.3756214054562669E+63</v>
+      </c>
+      <c r="D24" s="23">
         <f>B24/C24</f>
-        <v>3.1756722600147263E-16</v>
-      </c>
-      <c r="E24" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="40">
+        <v>3.1588235766941921E-16</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="80"/>
+      <c r="G24" s="20">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="30">
         <f>(((G2*H2)-(4*($H$23*$H$22))))</f>
         <v>-5.3344255239674024E+39</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="22">
         <f>(G2*G2)-(18*(($H$22)*($H$22)))</f>
         <v>-7.7067631148929697E+55</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="23">
         <f>H24/I24</f>
         <v>6.9217458022796458E-17</v>
       </c>
-      <c r="K24" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="67" t="s">
+      <c r="K24" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="66">
-        <f>((4*(PI()*PI()))/(0.0000000000667))/(3.1672E-16)</f>
-        <v>1.8687810176288513E+27</v>
-      </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="66">
+      <c r="L24" s="78"/>
+      <c r="M24" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="44">
+        <f>((4*(PI()*PI()))/(0.0000000000667))/(3.1472E-16)</f>
+        <v>1.8806568502268995E+27</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="44">
         <f>((4*(PI()*PI()))/(0.0000000000667))/(3.1157E-16)</f>
         <v>1.8996704557672748E+27</v>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
     </row>
     <row r="25" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="5">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="7">
         <f t="shared" ref="B25:B41" si="4">(((G3*H3)-(18*($B$22*$B$23))))</f>
-        <v>-4.2288531297320901E+47</v>
-      </c>
-      <c r="C25" s="27">
+        <v>-4.3453453278934556E+47</v>
+      </c>
+      <c r="C25" s="9">
         <f t="shared" ref="C25:C41" si="5">(G3*G3)-(18*(($B$22)*($B$22)))</f>
-        <v>-1.3316402901435608E+63</v>
-      </c>
-      <c r="D25" s="44">
+        <v>-1.3756214053705455E+63</v>
+      </c>
+      <c r="D25" s="24">
         <f t="shared" ref="D25:D42" si="6">B25/C25</f>
-        <v>3.175672260018648E-16</v>
-      </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="18">
+        <v>3.1588235766969388E-16</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="5">
         <f>G24+1</f>
         <v>2</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="30">
         <f t="shared" ref="H25:H27" si="7">(((G3*H3)-(4*($H$23*$H$22))))</f>
         <v>-5.3077254395867652E+39</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="22">
         <f t="shared" ref="I25:I27" si="8">(G3*G3)-(18*(($H$22)*($H$22)))</f>
         <v>-7.69819097179737E+55</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="23">
         <f t="shared" ref="J25:J28" si="9">H25/I25</f>
         <v>6.8947697699782056E-17</v>
       </c>
-      <c r="K25" s="114"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="69">
+      <c r="K25" s="58"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="47">
         <f>ABS(((N24-$N$33)/$N$33))</f>
-        <v>1.5462050740017084E-2</v>
-      </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="69">
+        <v>9.2054547228590782E-3</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="47">
         <f>ABS(((Q24-$N$33)/$N$33))</f>
         <v>8.1156494406327295E-4</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
     </row>
     <row r="26" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="5">
         <f t="shared" ref="A26:A41" si="10">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="7">
         <f t="shared" si="4"/>
-        <v>-4.2288531253303172E+47</v>
-      </c>
-      <c r="C26" s="27">
+        <v>-4.3453453234916827E+47</v>
+      </c>
+      <c r="C26" s="9">
         <f t="shared" si="5"/>
-        <v>-1.3316402887308143E+63</v>
-      </c>
-      <c r="D26" s="44">
+        <v>-1.375621403957799E+63</v>
+      </c>
+      <c r="D26" s="24">
         <f t="shared" si="6"/>
-        <v>3.1756722600822139E-16</v>
-      </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="18">
+        <v>3.1588235767411687E-16</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="5">
         <f t="shared" ref="G26:G27" si="11">G25+1</f>
         <v>3</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="30">
         <f t="shared" si="7"/>
         <v>-4.8675481164432644E+39</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="22">
         <f t="shared" si="8"/>
         <v>-7.5569163224676364E+55</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="23">
         <f t="shared" si="9"/>
         <v>6.4411830285475683E-17</v>
       </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
     </row>
     <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="5">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="7">
         <f t="shared" si="4"/>
-        <v>-4.2288529912668243E+47</v>
-      </c>
-      <c r="C27" s="27">
+        <v>-4.3453451894281899E+47</v>
+      </c>
+      <c r="C27" s="9">
         <f t="shared" si="5"/>
-        <v>-1.3316402457014236E+63</v>
-      </c>
-      <c r="D27" s="44">
+        <v>-1.3756213609284083E+63</v>
+      </c>
+      <c r="D27" s="24">
         <f t="shared" si="6"/>
-        <v>3.1756722620224902E-16</v>
-      </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="18">
+        <v>3.1588235780923844E-16</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="5">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="30">
         <f t="shared" si="7"/>
         <v>8.5388011526230316E+39</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="22">
         <f t="shared" si="8"/>
         <v>-3.2539772398420693E+55</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="23">
         <f t="shared" si="9"/>
         <v>-2.6241121320926818E-16</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="75"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
     </row>
     <row r="28" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="5">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="7">
         <f t="shared" si="4"/>
-        <v>-4.152692984346073E+47</v>
-      </c>
-      <c r="C28" s="27">
+        <v>-4.062357680149106E+47</v>
+      </c>
+      <c r="C28" s="9">
         <f t="shared" si="5"/>
-        <v>-1.3075877874716307E+63</v>
-      </c>
-      <c r="D28" s="44">
+        <v>-1.2866199759260654E+63</v>
+      </c>
+      <c r="D28" s="24">
         <f t="shared" si="6"/>
-        <v>3.175842589028593E-16</v>
-      </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="31">
+        <v>3.1573873841226183E-16</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="11">
         <f>SUM(H24:H27)</f>
         <v>-6.9708979273744009E+39</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="15">
         <f>SUM(I24:I27)</f>
         <v>-2.6215847649000043E+56</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="34">
         <f t="shared" si="9"/>
         <v>2.659039684967155E-17</v>
       </c>
-      <c r="K28" s="114"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
     </row>
     <row r="29" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="5">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="7">
         <f t="shared" si="4"/>
-        <v>-4.0623707679208479E+47</v>
-      </c>
-      <c r="C29" s="27">
+        <v>-4.0663274306592848E+47</v>
+      </c>
+      <c r="C29" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2784947465280892E+63</v>
-      </c>
-      <c r="D29" s="44">
+        <v>-1.2858591037883434E+63</v>
+      </c>
+      <c r="D29" s="24">
         <f t="shared" si="6"/>
-        <v>3.177463794006756E-16</v>
-      </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="66">
+        <v>3.1623429181931705E-16</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="44">
         <f>((4*(PI()*PI()))/(0.0000000000667))/$D$42</f>
-        <v>1.8636883892642747E+27</v>
-      </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="55">
+        <v>1.873601583275959E+27</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="33">
         <f>((4*(PI()*PI()))/(0.0000000000667))/$J$28</f>
         <v>2.2259176019432775E+28</v>
       </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
     </row>
     <row r="30" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="5">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="7">
         <f t="shared" si="4"/>
-        <v>-3.9714493200276673E+47</v>
-      </c>
-      <c r="C30" s="27">
+        <v>-4.0879415181890329E+47</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2525107747652283E+63</v>
-      </c>
-      <c r="D30" s="44">
+        <v>-1.296491889992213E+63</v>
+      </c>
+      <c r="D30" s="24">
         <f t="shared" si="6"/>
-        <v>3.170790543316547E-16</v>
-      </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="18">
+        <v>3.1530791281799582E-16</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="7">
         <f>G2*G2</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="9">
         <f>G2*H2</f>
         <v>1.7533581368011815E+36</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="24">
         <f>((G2*G2)-(4*($H$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="K30" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="69">
+      <c r="K30" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="47">
         <f>ABS(((N29-$N$33)/$N$33))</f>
-        <v>1.8145022066836984E-2</v>
-      </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q30" s="69">
+        <v>1.2922411385964594E-2</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="47">
         <f>ABS(((Q29-$N$33)/$N$33))</f>
         <v>10.726897535697121</v>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="5">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="7">
         <f t="shared" si="4"/>
-        <v>-3.9701265592195099E+47</v>
-      </c>
-      <c r="C31" s="27">
+        <v>-4.0866187573808755E+47</v>
+      </c>
+      <c r="C31" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2506598730511701E+63</v>
-      </c>
-      <c r="D31" s="44">
+        <v>-1.2946409882781547E+63</v>
+      </c>
+      <c r="D31" s="24">
         <f t="shared" si="6"/>
-        <v>3.1744254731174818E-16</v>
-      </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="18">
+        <v>3.1565652519745974E-16</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="5">
         <f>G30+1</f>
         <v>2</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="7">
         <f t="shared" ref="H31:H33" si="12">G3*G3</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="9">
         <f t="shared" ref="I31:I33" si="13">G3*H3</f>
         <v>2.8453442517438307E+37</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="24">
         <f t="shared" ref="J31:J33" si="14">((G3*G3)-(4*($H$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="K31" s="115"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="5">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="7">
         <f t="shared" si="4"/>
-        <v>-3.9591362718717439E+47</v>
-      </c>
-      <c r="C32" s="27">
+        <v>-4.0756284700331094E+47</v>
+      </c>
+      <c r="C32" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2473339835428015E+63</v>
-      </c>
-      <c r="D32" s="44">
+        <v>-1.2913150987697862E+63</v>
+      </c>
+      <c r="D32" s="24">
         <f t="shared" si="6"/>
-        <v>3.1740787344113024E-16</v>
-      </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="18">
+        <v>3.1561843224135541E-16</v>
+      </c>
+      <c r="E32" s="63"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="5">
         <f t="shared" ref="G32:G33" si="15">G31+1</f>
         <v>3</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="7">
         <f t="shared" si="12"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="9">
         <f t="shared" si="13"/>
         <v>4.6863076566093936E+38</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="24">
         <f t="shared" si="14"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="K32" s="115"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
     </row>
     <row r="33" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="7">
         <f t="shared" si="4"/>
-        <v>-3.7694143601663483E+47</v>
-      </c>
-      <c r="C33" s="27">
+        <v>-4.0562832626314654E+47</v>
+      </c>
+      <c r="C33" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1885543414381976E+63</v>
-      </c>
-      <c r="D33" s="44">
+        <v>-1.2832835973622021E+63</v>
+      </c>
+      <c r="D33" s="24">
         <f t="shared" si="6"/>
-        <v>3.1714278672401365E-16</v>
-      </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="18">
+        <v>3.1608627048371714E-16</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="5">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="7">
         <f t="shared" si="12"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="9">
         <f t="shared" si="13"/>
         <v>1.3874980034727236E+40</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="24">
         <f t="shared" si="14"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="K33" s="115"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="77">
+      <c r="K33" s="59"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="72">
         <v>1.89813E+27</v>
       </c>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
     </row>
     <row r="34" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="5">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="7">
         <f t="shared" si="4"/>
-        <v>-3.7572281471796835E+47</v>
-      </c>
-      <c r="C34" s="27">
+        <v>-3.873720345341049E+47</v>
+      </c>
+      <c r="C34" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1862871802567465E+63</v>
-      </c>
-      <c r="D34" s="44">
+        <v>-1.2302682954837311E+63</v>
+      </c>
+      <c r="D34" s="24">
         <f t="shared" si="6"/>
-        <v>3.1672163450055254E-16</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="36">
+        <v>3.1486793243078209E-16</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="16">
         <f>SUM(H30:H33)</f>
         <v>4.6134574902631387E+55</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="17">
         <f>SUM(I30:I33)</f>
         <v>1.4373817601042415E+40</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="32">
         <f>SUM(J30:J33)</f>
         <v>4.6134574902631387E+55</v>
       </c>
-      <c r="K34" s="115"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
     </row>
     <row r="35" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="5">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="7">
         <f t="shared" si="4"/>
-        <v>-3.7369393771159689E+47</v>
-      </c>
-      <c r="C35" s="27">
+        <v>-4.0600151757326099E+47</v>
+      </c>
+      <c r="C35" s="9">
         <f t="shared" si="5"/>
-        <v>-1.174902654165147E+63</v>
-      </c>
-      <c r="D35" s="44">
+        <v>-1.2827611782996318E+63</v>
+      </c>
+      <c r="D35" s="24">
         <f t="shared" si="6"/>
-        <v>3.1806374458923441E-16</v>
-      </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="58">
+        <v>3.1650592833767984E-16</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="36">
         <f>($H$23)*(H34)</f>
         <v>2.9742761717232685E+67</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="48">
         <f>($H$22)*(I34)</f>
         <v>2.9743203973810773E+67</v>
       </c>
-      <c r="J35" s="61">
+      <c r="J35" s="39">
         <f>(H35-I35)/J34</f>
         <v>-9586228.5286359545</v>
       </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
     </row>
     <row r="36" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="5">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="7">
         <f t="shared" si="4"/>
-        <v>-3.7299011256579901E+47</v>
-      </c>
-      <c r="C36" s="27">
+        <v>-3.8463933238193556E+47</v>
+      </c>
+      <c r="C36" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1744972110492811E+63</v>
-      </c>
-      <c r="D36" s="44">
+        <v>-1.2184783262762658E+63</v>
+      </c>
+      <c r="D36" s="24">
         <f t="shared" si="6"/>
-        <v>3.175742854532403E-16</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
+        <v>3.1567187046930387E-16</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="5">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="7">
         <f t="shared" si="4"/>
-        <v>-3.6870668215524404E+47</v>
-      </c>
-      <c r="C37" s="27">
+        <v>-3.803559019713806E+47</v>
+      </c>
+      <c r="C37" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1636446153967948E+63</v>
-      </c>
-      <c r="D37" s="44">
+        <v>-1.2076257306237795E+63</v>
+      </c>
+      <c r="D37" s="24">
         <f t="shared" si="6"/>
-        <v>3.1685505804494924E-16</v>
-      </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
+        <v>3.1496174048470624E-16</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
     </row>
     <row r="38" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="5">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="7">
         <f t="shared" si="4"/>
-        <v>-3.6885512051411234E+47</v>
-      </c>
-      <c r="C38" s="27">
+        <v>-3.805043403302489E+47</v>
+      </c>
+      <c r="C38" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1597454642950842E+63</v>
-      </c>
-      <c r="D38" s="44">
+        <v>-1.2037265795220691E+63</v>
+      </c>
+      <c r="D38" s="24">
         <f t="shared" si="6"/>
-        <v>3.1804834066612161E-16</v>
-      </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
+        <v>3.1610529068929042E-16</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
     </row>
     <row r="39" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="5">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="7">
         <f t="shared" si="4"/>
-        <v>-3.6849194799175553E+47</v>
-      </c>
-      <c r="C39" s="27">
+        <v>-3.8014116780789209E+47</v>
+      </c>
+      <c r="C39" s="9">
         <f t="shared" si="5"/>
-        <v>-1.157988462131699E+63</v>
-      </c>
-      <c r="D39" s="44">
+        <v>-1.2019695773586837E+63</v>
+      </c>
+      <c r="D39" s="24">
         <f t="shared" si="6"/>
-        <v>3.1821728803187903E-16</v>
-      </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
+        <v>3.1626521583287371E-16</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
     </row>
     <row r="40" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="5">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="7">
         <f t="shared" si="4"/>
-        <v>-3.6578152845565754E+47</v>
-      </c>
-      <c r="C40" s="27">
+        <v>-3.774307482717941E+47</v>
+      </c>
+      <c r="C40" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1494369340431084E+63</v>
-      </c>
-      <c r="D40" s="44">
+        <v>-1.193418049270093E+63</v>
+      </c>
+      <c r="D40" s="24">
         <f t="shared" si="6"/>
-        <v>3.1822670528693775E-16</v>
-      </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
+        <v>3.1626029831091852E-16</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
     </row>
     <row r="41" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="6">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="8">
         <f t="shared" si="4"/>
-        <v>-3.6389658534999307E+47</v>
-      </c>
-      <c r="C41" s="27">
+        <v>-3.6755393060927435E+47</v>
+      </c>
+      <c r="C41" s="9">
         <f t="shared" si="5"/>
-        <v>-1.1433860025787315E+63</v>
-      </c>
-      <c r="D41" s="45">
+        <v>-1.1572240625303691E+63</v>
+      </c>
+      <c r="D41" s="25">
         <f t="shared" si="6"/>
-        <v>3.1826223561358998E-16</v>
-      </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
+        <v>3.1761690973274989E-16</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
     </row>
     <row r="42" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="31">
+      <c r="A42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="11">
         <f>SUM(B24:B41)</f>
-        <v>-7.0381989934501777E+48</v>
-      </c>
-      <c r="C42" s="35">
+        <v>-7.2456528022815577E+48</v>
+      </c>
+      <c r="C42" s="15">
         <f>SUM(C24:C41)</f>
-        <v>-2.2161591145518792E+64</v>
-      </c>
-      <c r="D42" s="46">
+        <v>-2.2936168029194406E+64</v>
+      </c>
+      <c r="D42" s="26">
         <f t="shared" si="6"/>
-        <v>3.1758545436722147E-16</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
+        <v>3.1590511514647503E-16</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
     </row>
     <row r="43" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="117">
+        <f>N24</f>
+        <v>1.8806568502268995E+27</v>
+      </c>
+      <c r="K43" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="120">
+        <f>Q24</f>
+        <v>1.8996704557672748E+27</v>
+      </c>
+      <c r="M43" s="113"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
     </row>
     <row r="44" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="7">
         <f>(G2*G2)</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="9">
         <f>G2*H2</f>
         <v>1.7533581368011815E+36</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="24">
         <f>((G2*G2)-(18*($B$22)))</f>
         <v>5.6316992282646212E+51</v>
       </c>
-      <c r="E44" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
+      <c r="E44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="117">
+        <f>N29</f>
+        <v>1.873601583275959E+27</v>
+      </c>
+      <c r="K44" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="121">
+        <f>Q29</f>
+        <v>2.2259176019432775E+28</v>
+      </c>
+      <c r="M44" s="88"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
     </row>
     <row r="45" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="5">
         <f>A44+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="7">
         <f t="shared" ref="B45:B61" si="16">(G3*G3)</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="9">
         <f t="shared" ref="C45:C61" si="17">G3*H3</f>
         <v>2.8453442517438307E+37</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="24">
         <f t="shared" ref="D45:D61" si="18">((G3*G3)-(18*($B$22)))</f>
         <v>9.1353130184257563E+52</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="123"/>
+      <c r="K45" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="122"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="78"/>
+      <c r="U45" s="78"/>
     </row>
     <row r="46" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="5">
         <f t="shared" ref="A46:A61" si="19">A45+1</f>
         <v>3</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="7">
         <f t="shared" si="16"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="9">
         <f t="shared" si="17"/>
         <v>4.6863076566093936E+38</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="24">
         <f t="shared" si="18"/>
         <v>1.5040996234815998E+54</v>
       </c>
-      <c r="E46" s="104"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
     </row>
     <row r="47" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="5">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="7">
         <f t="shared" si="16"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="9">
         <f t="shared" si="17"/>
         <v>1.3874980034727236E+40</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="24">
         <f t="shared" si="18"/>
         <v>4.4533490449737266E+55</v>
       </c>
-      <c r="E47" s="104"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
     </row>
     <row r="48" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="5">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="7">
         <f t="shared" si="16"/>
-        <v>2.4052502763283338E+61</v>
-      </c>
-      <c r="C48" s="27">
+        <v>8.9001429535833269E+61</v>
+      </c>
+      <c r="C48" s="9">
         <f t="shared" si="17"/>
-        <v>7.6160145670551767E+45</v>
-      </c>
-      <c r="D48" s="44">
+        <v>2.8298764802888422E+46</v>
+      </c>
+      <c r="D48" s="24">
         <f t="shared" si="18"/>
-        <v>2.4052502763283338E+61</v>
-      </c>
-      <c r="E48" s="104"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
+        <v>8.9001429535833269E+61</v>
+      </c>
+      <c r="E48" s="61"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
     </row>
     <row r="49" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="5">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="7">
         <f t="shared" si="16"/>
-        <v>5.3145543706824755E+61</v>
-      </c>
-      <c r="C49" s="27">
+        <v>8.9762301673555243E+61</v>
+      </c>
+      <c r="C49" s="9">
         <f t="shared" si="17"/>
-        <v>1.6648236209577638E+46</v>
-      </c>
-      <c r="D49" s="44">
+        <v>2.790178975187057E+46</v>
+      </c>
+      <c r="D49" s="24">
         <f t="shared" si="18"/>
-        <v>5.3145543706824755E+61</v>
-      </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
+        <v>8.9762301673555243E+61</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
     </row>
     <row r="50" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="5">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="7">
         <f t="shared" si="16"/>
         <v>7.9129515469685652E+61</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="9">
         <f t="shared" si="17"/>
         <v>2.5740380998895703E+46</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="24">
         <f t="shared" si="18"/>
         <v>7.9129515469685652E+61</v>
       </c>
-      <c r="E50" s="104"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
     </row>
     <row r="51" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="5">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="7">
         <f t="shared" si="16"/>
         <v>8.0980417183743995E+61</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="9">
         <f t="shared" si="17"/>
         <v>2.5872657079711518E+46</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="24">
         <f t="shared" si="18"/>
         <v>8.0980417183743995E+61</v>
       </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
     </row>
     <row r="52" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="5">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="7">
         <f t="shared" si="16"/>
         <v>8.4306306692112461E+61</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="9">
         <f t="shared" si="17"/>
         <v>2.6971685814488062E+46</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="24">
         <f t="shared" si="18"/>
         <v>8.4306306692112461E+61</v>
       </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
     </row>
     <row r="53" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="5">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="7">
         <f t="shared" si="16"/>
-        <v>1.430859487967163E+62</v>
-      </c>
-      <c r="C53" s="27">
+        <v>9.2337808099696642E+61</v>
+      </c>
+      <c r="C53" s="9">
         <f t="shared" si="17"/>
-        <v>4.5943876985027616E+46</v>
-      </c>
-      <c r="D53" s="44">
+        <v>2.8906206554652485E+46</v>
+      </c>
+      <c r="D53" s="24">
         <f t="shared" si="18"/>
-        <v>1.430859487967163E+62</v>
-      </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
+        <v>9.2337808099696642E+61</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
     </row>
     <row r="54" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="5">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="7">
         <f t="shared" si="16"/>
         <v>1.4535310997816755E+62</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="9">
         <f t="shared" si="17"/>
         <v>4.7162498283694091E+46</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="24">
         <f t="shared" si="18"/>
         <v>1.4535310997816755E+62</v>
       </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
     </row>
     <row r="55" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="5">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="7">
         <f t="shared" si="16"/>
-        <v>1.5673763606976707E+62</v>
-      </c>
-      <c r="C55" s="27">
+        <v>9.2860227162266922E+61</v>
+      </c>
+      <c r="C55" s="9">
         <f t="shared" si="17"/>
-        <v>4.9191375290065573E+46</v>
-      </c>
-      <c r="D55" s="44">
+        <v>2.8533015244538061E+46</v>
+      </c>
+      <c r="D55" s="24">
         <f t="shared" si="18"/>
-        <v>1.5673763606976707E+62</v>
-      </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
+        <v>9.2860227162266922E+61</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
     </row>
     <row r="56" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="5">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="7">
         <f t="shared" si="16"/>
         <v>1.571430791856329E+62</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="9">
         <f t="shared" si="17"/>
         <v>4.989520043586347E+46</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="24">
         <f t="shared" si="18"/>
         <v>1.571430791856329E+62</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
     </row>
     <row r="57" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="5">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="7">
         <f t="shared" si="16"/>
         <v>1.6799567483811908E+62</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="9">
         <f t="shared" si="17"/>
         <v>5.4178630846418446E+46</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="24">
         <f t="shared" si="18"/>
         <v>1.6799567483811908E+62</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
     </row>
     <row r="58" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="5">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="7">
         <f t="shared" si="16"/>
         <v>1.7189482593982965E+62</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="9">
         <f t="shared" si="17"/>
         <v>5.4030192487550106E+46</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="24">
         <f t="shared" si="18"/>
         <v>1.7189482593982965E+62</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
     </row>
     <row r="59" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="5">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="7">
         <f t="shared" si="16"/>
         <v>1.7365182810321493E+62</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="9">
         <f t="shared" si="17"/>
         <v>5.4393365009906917E+46</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="24">
         <f t="shared" si="18"/>
         <v>1.7365182810321493E+62</v>
       </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
     </row>
     <row r="60" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
+      <c r="A60" s="5">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="7">
         <f t="shared" si="16"/>
         <v>1.8220335619180562E+62</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="9">
         <f t="shared" si="17"/>
         <v>5.7103784546004897E+46</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="24">
         <f t="shared" si="18"/>
         <v>1.8220335619180562E+62</v>
       </c>
-      <c r="E60" s="104"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
     </row>
     <row r="61" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="6">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="7">
         <f t="shared" si="16"/>
-        <v>1.8825428765618248E+62</v>
-      </c>
-      <c r="C61" s="27">
+        <v>2.183973429315296E+62</v>
+      </c>
+      <c r="C61" s="9">
         <f t="shared" si="17"/>
-        <v>5.8988727651669404E+46</v>
-      </c>
-      <c r="D61" s="44">
+        <v>6.6980602208524708E+46</v>
+      </c>
+      <c r="D61" s="24">
         <f t="shared" si="18"/>
-        <v>1.8825428765618248E+62</v>
-      </c>
-      <c r="E61" s="104"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
+        <v>2.183973429315296E+62</v>
+      </c>
+      <c r="E61" s="61"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
     </row>
     <row r="62" spans="1:21" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="36">
+      <c r="A62" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="16">
         <f>SUM(B44:B61)</f>
-        <v>1.8079340787096609E+63</v>
-      </c>
-      <c r="C62" s="37">
+        <v>1.8250172691197684E+63</v>
+      </c>
+      <c r="C62" s="17">
         <f>SUM(C44:C61)</f>
-        <v>5.737366405797463E+47</v>
-      </c>
-      <c r="D62" s="48">
+        <v>5.7596878843882508E+47</v>
+      </c>
+      <c r="D62" s="28">
         <f>SUM(D44:D61)</f>
-        <v>1.8079340787096609E+63</v>
-      </c>
-      <c r="E62" s="104"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
+        <v>1.8250172691197684E+63</v>
+      </c>
+      <c r="E62" s="61"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
+      <c r="U62" s="78"/>
     </row>
     <row r="63" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="58">
+      <c r="A63" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="36">
         <f>($B$23)*(B62)</f>
-        <v>4.9382773458459994E+78</v>
-      </c>
-      <c r="C63" s="59">
+        <v>5.0397101455888651E+78</v>
+      </c>
+      <c r="C63" s="37">
         <f>($B$22)*(C62)</f>
-        <v>4.9348027372967931E+78</v>
-      </c>
-      <c r="D63" s="49">
+        <v>5.0351470645113099E+78</v>
+      </c>
+      <c r="D63" s="29">
         <f>(B63-C63)/(D62)</f>
-        <v>1921866836918.1565</v>
-      </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
+        <v>2500294739542.9683</v>
+      </c>
+      <c r="E63" s="61"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="78"/>
     </row>
     <row r="64" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
+      <c r="A64" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="78"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="E44:E63"/>
-    <mergeCell ref="E24:E42"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="H22:K22"/>
+  <mergeCells count="51">
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A10:B10"/>
@@ -6333,26 +6374,40 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="E44:E63"/>
+    <mergeCell ref="E24:E42"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="M34:Q34"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="M32:Q32"/>
     <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B19" r:id="rId1" display="Io" xr:uid="{568683D6-1B8A-0E48-BB6A-9608824516C4}"/>
     <hyperlink ref="M32:Q32" r:id="rId2" display="Actual Mass" xr:uid="{82472911-C3C9-2E40-AB77-675781E87536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>